--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cd6-Alcam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cd6-Alcam.xlsx
@@ -546,10 +546,10 @@
         <v>0.010655</v>
       </c>
       <c r="I2">
-        <v>0.02030734514100788</v>
+        <v>0.004953627445374112</v>
       </c>
       <c r="J2">
-        <v>0.02030734514100788</v>
+        <v>0.004953627445374111</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.462812</v>
+        <v>0.2753413333333334</v>
       </c>
       <c r="N2">
-        <v>4.388436</v>
+        <v>0.8260240000000001</v>
       </c>
       <c r="O2">
-        <v>0.01745990761220821</v>
+        <v>0.006630378892106956</v>
       </c>
       <c r="P2">
-        <v>0.01745990761220821</v>
+        <v>0.006630378892106955</v>
       </c>
       <c r="Q2">
-        <v>0.00519542062</v>
+        <v>0.0009779206355555556</v>
       </c>
       <c r="R2">
-        <v>0.04675878558</v>
+        <v>0.008801285720000001</v>
       </c>
       <c r="S2">
-        <v>0.0003545643700112229</v>
+        <v>3.284442685317021E-05</v>
       </c>
       <c r="T2">
-        <v>0.0003545643700112229</v>
+        <v>3.284442685317021E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.010655</v>
       </c>
       <c r="I3">
-        <v>0.02030734514100788</v>
+        <v>0.004953627445374112</v>
       </c>
       <c r="J3">
-        <v>0.02030734514100788</v>
+        <v>0.004953627445374111</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>4.923774</v>
       </c>
       <c r="O3">
-        <v>0.0195898126675182</v>
+        <v>0.03952244389885164</v>
       </c>
       <c r="P3">
-        <v>0.01958981266751819</v>
+        <v>0.03952244389885164</v>
       </c>
       <c r="Q3">
         <v>0.00582920133</v>
@@ -638,10 +638,10 @@
         <v>0.05246281197</v>
       </c>
       <c r="S3">
-        <v>0.0003978170870869802</v>
+        <v>0.0001957794628056101</v>
       </c>
       <c r="T3">
-        <v>0.0003978170870869802</v>
+        <v>0.0001957794628056101</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>0.010655</v>
       </c>
       <c r="I4">
-        <v>0.02030734514100788</v>
+        <v>0.004953627445374112</v>
       </c>
       <c r="J4">
-        <v>0.02030734514100788</v>
+        <v>0.004953627445374111</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>41.66413499999999</v>
+        <v>23.78768866666667</v>
       </c>
       <c r="N4">
-        <v>124.992405</v>
+        <v>71.363066</v>
       </c>
       <c r="O4">
-        <v>0.497296951243612</v>
+        <v>0.5728213302306416</v>
       </c>
       <c r="P4">
-        <v>0.497296951243612</v>
+        <v>0.5728213302306416</v>
       </c>
       <c r="Q4">
-        <v>0.147977119475</v>
+        <v>0.08448594091444445</v>
       </c>
       <c r="R4">
-        <v>1.331794075275</v>
+        <v>0.76037346823</v>
       </c>
       <c r="S4">
-        <v>0.01009878082647499</v>
+        <v>0.002837543462726214</v>
       </c>
       <c r="T4">
-        <v>0.010098780826475</v>
+        <v>0.002837543462726213</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>0.010655</v>
       </c>
       <c r="I5">
-        <v>0.02030734514100788</v>
+        <v>0.004953627445374112</v>
       </c>
       <c r="J5">
-        <v>0.02030734514100788</v>
+        <v>0.004953627445374111</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.59762</v>
+        <v>0.5982033333333333</v>
       </c>
       <c r="N5">
-        <v>1.79286</v>
+        <v>1.79461</v>
       </c>
       <c r="O5">
-        <v>0.007133103903446152</v>
+        <v>0.01440508298011203</v>
       </c>
       <c r="P5">
-        <v>0.007133103903446151</v>
+        <v>0.01440508298011203</v>
       </c>
       <c r="Q5">
-        <v>0.002122547033333333</v>
+        <v>0.002124618838888889</v>
       </c>
       <c r="R5">
-        <v>0.0191029233</v>
+        <v>0.01912156955</v>
       </c>
       <c r="S5">
-        <v>0.0001448544028939515</v>
+        <v>7.135741440317447E-05</v>
       </c>
       <c r="T5">
-        <v>0.0001448544028939516</v>
+        <v>7.135741440317446E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>0.010655</v>
       </c>
       <c r="I6">
-        <v>0.02030734514100788</v>
+        <v>0.004953627445374112</v>
       </c>
       <c r="J6">
-        <v>0.02030734514100788</v>
+        <v>0.004953627445374111</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>38.41537433333333</v>
+        <v>15.22474833333333</v>
       </c>
       <c r="N6">
-        <v>115.246123</v>
+        <v>45.674245</v>
       </c>
       <c r="O6">
-        <v>0.4585202245732156</v>
+        <v>0.3666207639982877</v>
       </c>
       <c r="P6">
-        <v>0.4585202245732155</v>
+        <v>0.3666207639982877</v>
       </c>
       <c r="Q6">
-        <v>0.1364386045072222</v>
+        <v>0.05407323116388888</v>
       </c>
       <c r="R6">
-        <v>1.227947440565</v>
+        <v>0.4866590804749999</v>
       </c>
       <c r="S6">
-        <v>0.009311328454540729</v>
+        <v>0.001816102678585943</v>
       </c>
       <c r="T6">
-        <v>0.00931132845454073</v>
+        <v>0.001816102678585943</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.167406</v>
       </c>
       <c r="I7">
-        <v>0.3190587912412543</v>
+        <v>0.0778289024983856</v>
       </c>
       <c r="J7">
-        <v>0.3190587912412544</v>
+        <v>0.07782890249838559</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.462812</v>
+        <v>0.2753413333333334</v>
       </c>
       <c r="N7">
-        <v>4.388436</v>
+        <v>0.8260240000000001</v>
       </c>
       <c r="O7">
-        <v>0.01745990761220821</v>
+        <v>0.006630378892106956</v>
       </c>
       <c r="P7">
-        <v>0.01745990761220821</v>
+        <v>0.006630378892106955</v>
       </c>
       <c r="Q7">
-        <v>0.08162783522400001</v>
+        <v>0.01536459708266667</v>
       </c>
       <c r="R7">
-        <v>0.734650517016</v>
+        <v>0.138281373744</v>
       </c>
       <c r="S7">
-        <v>0.005570737017935127</v>
+        <v>0.0005160351123211463</v>
       </c>
       <c r="T7">
-        <v>0.005570737017935127</v>
+        <v>0.0005160351123211461</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.167406</v>
       </c>
       <c r="I8">
-        <v>0.3190587912412543</v>
+        <v>0.0778289024983856</v>
       </c>
       <c r="J8">
-        <v>0.3190587912412544</v>
+        <v>0.07782890249838559</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>4.923774</v>
       </c>
       <c r="O8">
-        <v>0.0195898126675182</v>
+        <v>0.03952244389885164</v>
       </c>
       <c r="P8">
-        <v>0.01958981266751819</v>
+        <v>0.03952244389885164</v>
       </c>
       <c r="Q8">
         <v>0.091585478916</v>
@@ -948,10 +948,10 @@
         <v>0.824269310244</v>
       </c>
       <c r="S8">
-        <v>0.006250301950340967</v>
+        <v>0.003075988432701639</v>
       </c>
       <c r="T8">
-        <v>0.006250301950340967</v>
+        <v>0.003075988432701639</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.167406</v>
       </c>
       <c r="I9">
-        <v>0.3190587912412543</v>
+        <v>0.0778289024983856</v>
       </c>
       <c r="J9">
-        <v>0.3190587912412544</v>
+        <v>0.07782890249838559</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>41.66413499999999</v>
+        <v>23.78768866666667</v>
       </c>
       <c r="N9">
-        <v>124.992405</v>
+        <v>71.363066</v>
       </c>
       <c r="O9">
-        <v>0.497296951243612</v>
+        <v>0.5728213302306416</v>
       </c>
       <c r="P9">
-        <v>0.497296951243612</v>
+        <v>0.5728213302306416</v>
       </c>
       <c r="Q9">
-        <v>2.32494206127</v>
+        <v>1.327400602977333</v>
       </c>
       <c r="R9">
-        <v>20.92447855143</v>
+        <v>11.946605426796</v>
       </c>
       <c r="S9">
-        <v>0.1586669641517478</v>
+        <v>0.04458205545951615</v>
       </c>
       <c r="T9">
-        <v>0.1586669641517478</v>
+        <v>0.04458205545951614</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.167406</v>
       </c>
       <c r="I10">
-        <v>0.3190587912412543</v>
+        <v>0.0778289024983856</v>
       </c>
       <c r="J10">
-        <v>0.3190587912412544</v>
+        <v>0.07782890249838559</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.59762</v>
+        <v>0.5982033333333333</v>
       </c>
       <c r="N10">
-        <v>1.79286</v>
+        <v>1.79461</v>
       </c>
       <c r="O10">
-        <v>0.007133103903446152</v>
+        <v>0.01440508298011203</v>
       </c>
       <c r="P10">
-        <v>0.007133103903446151</v>
+        <v>0.01440508298011203</v>
       </c>
       <c r="Q10">
-        <v>0.03334839124</v>
+        <v>0.03338094240666666</v>
       </c>
       <c r="R10">
-        <v>0.30013552116</v>
+        <v>0.30042848166</v>
       </c>
       <c r="S10">
-        <v>0.002275879509231802</v>
+        <v>0.001121131798740293</v>
       </c>
       <c r="T10">
-        <v>0.002275879509231802</v>
+        <v>0.001121131798740293</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>0.167406</v>
       </c>
       <c r="I11">
-        <v>0.3190587912412543</v>
+        <v>0.0778289024983856</v>
       </c>
       <c r="J11">
-        <v>0.3190587912412544</v>
+        <v>0.07782890249838559</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>38.41537433333333</v>
+        <v>15.22474833333333</v>
       </c>
       <c r="N11">
-        <v>115.246123</v>
+        <v>45.674245</v>
       </c>
       <c r="O11">
-        <v>0.4585202245732156</v>
+        <v>0.3666207639982877</v>
       </c>
       <c r="P11">
-        <v>0.4585202245732155</v>
+        <v>0.3666207639982877</v>
       </c>
       <c r="Q11">
-        <v>2.143654718548667</v>
+        <v>0.8495714064966666</v>
       </c>
       <c r="R11">
-        <v>19.292892466938</v>
+        <v>7.64614265847</v>
       </c>
       <c r="S11">
-        <v>0.1462949086119986</v>
+        <v>0.02853369169510638</v>
       </c>
       <c r="T11">
-        <v>0.1462949086119986</v>
+        <v>0.02853369169510636</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.04547566666666666</v>
+        <v>0.509521</v>
       </c>
       <c r="H12">
-        <v>0.136427</v>
+        <v>1.528563</v>
       </c>
       <c r="I12">
-        <v>0.2600159714267744</v>
+        <v>0.7106458591068409</v>
       </c>
       <c r="J12">
-        <v>0.2600159714267745</v>
+        <v>0.7106458591068406</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.462812</v>
+        <v>0.2753413333333334</v>
       </c>
       <c r="N12">
-        <v>4.388436</v>
+        <v>0.8260240000000001</v>
       </c>
       <c r="O12">
-        <v>0.01745990761220821</v>
+        <v>0.006630378892106956</v>
       </c>
       <c r="P12">
-        <v>0.01745990761220821</v>
+        <v>0.006630378892106955</v>
       </c>
       <c r="Q12">
-        <v>0.066522350908</v>
+        <v>0.1402921915013333</v>
       </c>
       <c r="R12">
-        <v>0.598701158172</v>
+        <v>1.262629723512</v>
       </c>
       <c r="S12">
-        <v>0.004539854838810052</v>
+        <v>0.004711851303985212</v>
       </c>
       <c r="T12">
-        <v>0.004539854838810052</v>
+        <v>0.00471185130398521</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.04547566666666666</v>
+        <v>0.509521</v>
       </c>
       <c r="H13">
-        <v>0.136427</v>
+        <v>1.528563</v>
       </c>
       <c r="I13">
-        <v>0.2600159714267744</v>
+        <v>0.7106458591068409</v>
       </c>
       <c r="J13">
-        <v>0.2600159714267745</v>
+        <v>0.7106458591068406</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>4.923774</v>
       </c>
       <c r="O13">
-        <v>0.0195898126675182</v>
+        <v>0.03952244389885164</v>
       </c>
       <c r="P13">
-        <v>0.01958981266751819</v>
+        <v>0.03952244389885164</v>
       </c>
       <c r="Q13">
-        <v>0.07463730172199999</v>
+        <v>0.8362554174179999</v>
       </c>
       <c r="R13">
-        <v>0.6717357154979999</v>
+        <v>7.526298756761999</v>
       </c>
       <c r="S13">
-        <v>0.005093664170813274</v>
+        <v>0.02808646109850135</v>
       </c>
       <c r="T13">
-        <v>0.005093664170813274</v>
+        <v>0.02808646109850134</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.04547566666666666</v>
+        <v>0.509521</v>
       </c>
       <c r="H14">
-        <v>0.136427</v>
+        <v>1.528563</v>
       </c>
       <c r="I14">
-        <v>0.2600159714267744</v>
+        <v>0.7106458591068409</v>
       </c>
       <c r="J14">
-        <v>0.2600159714267745</v>
+        <v>0.7106458591068406</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>41.66413499999999</v>
+        <v>23.78768866666667</v>
       </c>
       <c r="N14">
-        <v>124.992405</v>
+        <v>71.363066</v>
       </c>
       <c r="O14">
-        <v>0.497296951243612</v>
+        <v>0.5728213302306416</v>
       </c>
       <c r="P14">
-        <v>0.497296951243612</v>
+        <v>0.5728213302306416</v>
       </c>
       <c r="Q14">
-        <v>1.894704315215</v>
+        <v>12.12032691712867</v>
       </c>
       <c r="R14">
-        <v>17.052338836935</v>
+        <v>109.082942254158</v>
       </c>
       <c r="S14">
-        <v>0.129305149865181</v>
+        <v>0.4070731063364777</v>
       </c>
       <c r="T14">
-        <v>0.129305149865181</v>
+        <v>0.4070731063364776</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.04547566666666666</v>
+        <v>0.509521</v>
       </c>
       <c r="H15">
-        <v>0.136427</v>
+        <v>1.528563</v>
       </c>
       <c r="I15">
-        <v>0.2600159714267744</v>
+        <v>0.7106458591068409</v>
       </c>
       <c r="J15">
-        <v>0.2600159714267745</v>
+        <v>0.7106458591068406</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.59762</v>
+        <v>0.5982033333333333</v>
       </c>
       <c r="N15">
-        <v>1.79286</v>
+        <v>1.79461</v>
       </c>
       <c r="O15">
-        <v>0.007133103903446152</v>
+        <v>0.01440508298011203</v>
       </c>
       <c r="P15">
-        <v>0.007133103903446151</v>
+        <v>0.01440508298011203</v>
       </c>
       <c r="Q15">
-        <v>0.02717716791333333</v>
+        <v>0.3047971606033333</v>
       </c>
       <c r="R15">
-        <v>0.24459451122</v>
+        <v>2.74317444543</v>
       </c>
       <c r="S15">
-        <v>0.001854720940742668</v>
+        <v>0.01023691256990705</v>
       </c>
       <c r="T15">
-        <v>0.001854720940742668</v>
+        <v>0.01023691256990704</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.04547566666666666</v>
+        <v>0.509521</v>
       </c>
       <c r="H16">
-        <v>0.136427</v>
+        <v>1.528563</v>
       </c>
       <c r="I16">
-        <v>0.2600159714267744</v>
+        <v>0.7106458591068409</v>
       </c>
       <c r="J16">
-        <v>0.2600159714267745</v>
+        <v>0.7106458591068406</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>38.41537433333333</v>
+        <v>15.22474833333333</v>
       </c>
       <c r="N16">
-        <v>115.246123</v>
+        <v>45.674245</v>
       </c>
       <c r="O16">
-        <v>0.4585202245732156</v>
+        <v>0.3666207639982877</v>
       </c>
       <c r="P16">
-        <v>0.4585202245732155</v>
+        <v>0.3666207639982877</v>
       </c>
       <c r="Q16">
-        <v>1.746964758057889</v>
+        <v>7.757328995548333</v>
       </c>
       <c r="R16">
-        <v>15.722682822521</v>
+        <v>69.815960959935</v>
       </c>
       <c r="S16">
-        <v>0.1192225816112274</v>
+        <v>0.2605375277979696</v>
       </c>
       <c r="T16">
-        <v>0.1192225816112274</v>
+        <v>0.2605375277979694</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.02383433333333334</v>
+        <v>0.06794533333333334</v>
       </c>
       <c r="H17">
-        <v>0.07150300000000001</v>
+        <v>0.203836</v>
       </c>
       <c r="I17">
-        <v>0.1362774377867186</v>
+        <v>0.09476561275976328</v>
       </c>
       <c r="J17">
-        <v>0.1362774377867186</v>
+        <v>0.09476561275976325</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.462812</v>
+        <v>0.2753413333333334</v>
       </c>
       <c r="N17">
-        <v>4.388436</v>
+        <v>0.8260240000000001</v>
       </c>
       <c r="O17">
-        <v>0.01745990761220821</v>
+        <v>0.006630378892106956</v>
       </c>
       <c r="P17">
-        <v>0.01745990761220821</v>
+        <v>0.006630378892106955</v>
       </c>
       <c r="Q17">
-        <v>0.03486514881200001</v>
+        <v>0.01870815867377778</v>
       </c>
       <c r="R17">
-        <v>0.3137863393080001</v>
+        <v>0.168373428064</v>
       </c>
       <c r="S17">
-        <v>0.002379391473384559</v>
+        <v>0.0006283319185399161</v>
       </c>
       <c r="T17">
-        <v>0.002379391473384559</v>
+        <v>0.0006283319185399158</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.02383433333333334</v>
+        <v>0.06794533333333334</v>
       </c>
       <c r="H18">
-        <v>0.07150300000000001</v>
+        <v>0.203836</v>
       </c>
       <c r="I18">
-        <v>0.1362774377867186</v>
+        <v>0.09476561275976328</v>
       </c>
       <c r="J18">
-        <v>0.1362774377867186</v>
+        <v>0.09476561275976325</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>4.923774</v>
       </c>
       <c r="O18">
-        <v>0.0195898126675182</v>
+        <v>0.03952244389885164</v>
       </c>
       <c r="P18">
-        <v>0.01958981266751819</v>
+        <v>0.03952244389885164</v>
       </c>
       <c r="Q18">
-        <v>0.039118290258</v>
+        <v>0.111515821896</v>
       </c>
       <c r="R18">
-        <v>0.352064612322</v>
+        <v>1.003642397064</v>
       </c>
       <c r="S18">
-        <v>0.002669649477051182</v>
+        <v>0.003745368613838044</v>
       </c>
       <c r="T18">
-        <v>0.002669649477051182</v>
+        <v>0.003745368613838043</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.02383433333333334</v>
+        <v>0.06794533333333334</v>
       </c>
       <c r="H19">
-        <v>0.07150300000000001</v>
+        <v>0.203836</v>
       </c>
       <c r="I19">
-        <v>0.1362774377867186</v>
+        <v>0.09476561275976328</v>
       </c>
       <c r="J19">
-        <v>0.1362774377867186</v>
+        <v>0.09476561275976325</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>41.66413499999999</v>
+        <v>23.78768866666667</v>
       </c>
       <c r="N19">
-        <v>124.992405</v>
+        <v>71.363066</v>
       </c>
       <c r="O19">
-        <v>0.497296951243612</v>
+        <v>0.5728213302306416</v>
       </c>
       <c r="P19">
-        <v>0.497296951243612</v>
+        <v>0.5728213302306416</v>
       </c>
       <c r="Q19">
-        <v>0.9930368816349999</v>
+        <v>1.616262435686223</v>
       </c>
       <c r="R19">
-        <v>8.937331934715001</v>
+        <v>14.546361921176</v>
       </c>
       <c r="S19">
-        <v>0.06777035433462615</v>
+        <v>0.05428376436116947</v>
       </c>
       <c r="T19">
-        <v>0.06777035433462616</v>
+        <v>0.05428376436116945</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.02383433333333334</v>
+        <v>0.06794533333333334</v>
       </c>
       <c r="H20">
-        <v>0.07150300000000001</v>
+        <v>0.203836</v>
       </c>
       <c r="I20">
-        <v>0.1362774377867186</v>
+        <v>0.09476561275976328</v>
       </c>
       <c r="J20">
-        <v>0.1362774377867186</v>
+        <v>0.09476561275976325</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.59762</v>
+        <v>0.5982033333333333</v>
       </c>
       <c r="N20">
-        <v>1.79286</v>
+        <v>1.79461</v>
       </c>
       <c r="O20">
-        <v>0.007133103903446152</v>
+        <v>0.01440508298011203</v>
       </c>
       <c r="P20">
-        <v>0.007133103903446151</v>
+        <v>0.01440508298011203</v>
       </c>
       <c r="Q20">
-        <v>0.01424387428666667</v>
+        <v>0.04064512488444445</v>
       </c>
       <c r="R20">
-        <v>0.12819486858</v>
+        <v>0.3658061239600001</v>
       </c>
       <c r="S20">
-        <v>0.0009720811234280825</v>
+        <v>0.001365106515465554</v>
       </c>
       <c r="T20">
-        <v>0.0009720811234280825</v>
+        <v>0.001365106515465553</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.02383433333333334</v>
+        <v>0.06794533333333334</v>
       </c>
       <c r="H21">
-        <v>0.07150300000000001</v>
+        <v>0.203836</v>
       </c>
       <c r="I21">
-        <v>0.1362774377867186</v>
+        <v>0.09476561275976328</v>
       </c>
       <c r="J21">
-        <v>0.1362774377867186</v>
+        <v>0.09476561275976325</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>38.41537433333333</v>
+        <v>15.22474833333333</v>
       </c>
       <c r="N21">
-        <v>115.246123</v>
+        <v>45.674245</v>
       </c>
       <c r="O21">
-        <v>0.4585202245732156</v>
+        <v>0.3666207639982877</v>
       </c>
       <c r="P21">
-        <v>0.4585202245732155</v>
+        <v>0.3666207639982877</v>
       </c>
       <c r="Q21">
-        <v>0.9156048369854445</v>
+        <v>1.034450600424444</v>
       </c>
       <c r="R21">
-        <v>8.240443532869001</v>
+        <v>9.31005540382</v>
       </c>
       <c r="S21">
-        <v>0.06248596137822861</v>
+        <v>0.0347430413507503</v>
       </c>
       <c r="T21">
-        <v>0.06248596137822862</v>
+        <v>0.03474304135075029</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.046232</v>
+        <v>0.080163</v>
       </c>
       <c r="H22">
-        <v>0.138696</v>
+        <v>0.240489</v>
       </c>
       <c r="I22">
-        <v>0.2643404544042448</v>
+        <v>0.1118059981896363</v>
       </c>
       <c r="J22">
-        <v>0.2643404544042449</v>
+        <v>0.1118059981896363</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.462812</v>
+        <v>0.2753413333333334</v>
       </c>
       <c r="N22">
-        <v>4.388436</v>
+        <v>0.8260240000000001</v>
       </c>
       <c r="O22">
-        <v>0.01745990761220821</v>
+        <v>0.006630378892106956</v>
       </c>
       <c r="P22">
-        <v>0.01745990761220821</v>
+        <v>0.006630378892106955</v>
       </c>
       <c r="Q22">
-        <v>0.067628724384</v>
+        <v>0.022072187304</v>
       </c>
       <c r="R22">
-        <v>0.608658519456</v>
+        <v>0.198649685736</v>
       </c>
       <c r="S22">
-        <v>0.004615359912067253</v>
+        <v>0.0007413161304075131</v>
       </c>
       <c r="T22">
-        <v>0.004615359912067253</v>
+        <v>0.0007413161304075128</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.046232</v>
+        <v>0.080163</v>
       </c>
       <c r="H23">
-        <v>0.138696</v>
+        <v>0.240489</v>
       </c>
       <c r="I23">
-        <v>0.2643404544042448</v>
+        <v>0.1118059981896363</v>
       </c>
       <c r="J23">
-        <v>0.2643404544042449</v>
+        <v>0.1118059981896363</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>4.923774</v>
       </c>
       <c r="O23">
-        <v>0.0195898126675182</v>
+        <v>0.03952244389885164</v>
       </c>
       <c r="P23">
-        <v>0.01958981266751819</v>
+        <v>0.03952244389885164</v>
       </c>
       <c r="Q23">
-        <v>0.07587863985599999</v>
+        <v>0.131568165054</v>
       </c>
       <c r="R23">
-        <v>0.6829077587039999</v>
+        <v>1.184113485486</v>
       </c>
       <c r="S23">
-        <v>0.005178379982225791</v>
+        <v>0.00441884629100501</v>
       </c>
       <c r="T23">
-        <v>0.005178379982225791</v>
+        <v>0.004418846291005008</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.046232</v>
+        <v>0.080163</v>
       </c>
       <c r="H24">
-        <v>0.138696</v>
+        <v>0.240489</v>
       </c>
       <c r="I24">
-        <v>0.2643404544042448</v>
+        <v>0.1118059981896363</v>
       </c>
       <c r="J24">
-        <v>0.2643404544042449</v>
+        <v>0.1118059981896363</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>41.66413499999999</v>
+        <v>23.78768866666667</v>
       </c>
       <c r="N24">
-        <v>124.992405</v>
+        <v>71.363066</v>
       </c>
       <c r="O24">
-        <v>0.497296951243612</v>
+        <v>0.5728213302306416</v>
       </c>
       <c r="P24">
-        <v>0.497296951243612</v>
+        <v>0.5728213302306416</v>
       </c>
       <c r="Q24">
-        <v>1.92621628932</v>
+        <v>1.906892486586</v>
       </c>
       <c r="R24">
-        <v>17.33594660388</v>
+        <v>17.162032379274</v>
       </c>
       <c r="S24">
-        <v>0.131455702065582</v>
+        <v>0.06404486061075218</v>
       </c>
       <c r="T24">
-        <v>0.131455702065582</v>
+        <v>0.06404486061075215</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.046232</v>
+        <v>0.080163</v>
       </c>
       <c r="H25">
-        <v>0.138696</v>
+        <v>0.240489</v>
       </c>
       <c r="I25">
-        <v>0.2643404544042448</v>
+        <v>0.1118059981896363</v>
       </c>
       <c r="J25">
-        <v>0.2643404544042449</v>
+        <v>0.1118059981896363</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.59762</v>
+        <v>0.5982033333333333</v>
       </c>
       <c r="N25">
-        <v>1.79286</v>
+        <v>1.79461</v>
       </c>
       <c r="O25">
-        <v>0.007133103903446152</v>
+        <v>0.01440508298011203</v>
       </c>
       <c r="P25">
-        <v>0.007133103903446151</v>
+        <v>0.01440508298011203</v>
       </c>
       <c r="Q25">
-        <v>0.02762916784</v>
+        <v>0.04795377381</v>
       </c>
       <c r="R25">
-        <v>0.24866251056</v>
+        <v>0.43158396429</v>
       </c>
       <c r="S25">
-        <v>0.001885567927149648</v>
+        <v>0.001610574681595967</v>
       </c>
       <c r="T25">
-        <v>0.001885567927149648</v>
+        <v>0.001610574681595966</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.046232</v>
+        <v>0.080163</v>
       </c>
       <c r="H26">
-        <v>0.138696</v>
+        <v>0.240489</v>
       </c>
       <c r="I26">
-        <v>0.2643404544042448</v>
+        <v>0.1118059981896363</v>
       </c>
       <c r="J26">
-        <v>0.2643404544042449</v>
+        <v>0.1118059981896363</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>38.41537433333333</v>
+        <v>15.22474833333333</v>
       </c>
       <c r="N26">
-        <v>115.246123</v>
+        <v>45.674245</v>
       </c>
       <c r="O26">
-        <v>0.4585202245732156</v>
+        <v>0.3666207639982877</v>
       </c>
       <c r="P26">
-        <v>0.4585202245732155</v>
+        <v>0.3666207639982877</v>
       </c>
       <c r="Q26">
-        <v>1.776019586178667</v>
+        <v>1.220461500645</v>
       </c>
       <c r="R26">
-        <v>15.984176275608</v>
+        <v>10.984153505805</v>
       </c>
       <c r="S26">
-        <v>0.1212054445172202</v>
+        <v>0.04099040047587564</v>
       </c>
       <c r="T26">
-        <v>0.1212054445172202</v>
+        <v>0.04099040047587562</v>
       </c>
     </row>
   </sheetData>
